--- a/CRUD/123123.xlsx
+++ b/CRUD/123123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
   <si>
     <t>모피어스시큐리티</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,23 +524,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8월25일 3시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월21일 오후 2시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>㈜와이비에스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>㈜해밀소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월21일 오후 4시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1188,13 +1176,114 @@
       <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상상스토리(주)</t>
+  </si>
+  <si>
+    <r>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>구로구</t>
+    </r>
+  </si>
+  <si>
+    <t>(주)아테나소프트</t>
+  </si>
+  <si>
+    <t>서울 강서구</t>
+  </si>
+  <si>
+    <t>(주)에스에스비정보기</t>
+  </si>
+  <si>
+    <r>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>강남구</t>
+    </r>
+  </si>
+  <si>
+    <t>8월21일 오후 4시(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월21일 오후 2시(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월25일 3시(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월24일 2시(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜오픈오브젝트</t>
+  </si>
+  <si>
+    <t>서울 구로구 디지털로 288</t>
+  </si>
+  <si>
+    <t>㈜비주얼</t>
+  </si>
+  <si>
+    <t>서울 강남구 테헤란로 116 (</t>
+  </si>
+  <si>
+    <t>유선 온라인 게임 소프트웨어 개발 및 공급업</t>
+  </si>
+  <si>
+    <t>㈜동인시스템</t>
+  </si>
+  <si>
+    <t>경기 군포시 금정동 1-40 한림휴먼타워 701호</t>
+  </si>
+  <si>
+    <t>트래블라이㈜</t>
+  </si>
+  <si>
+    <t>서울 종로구 새문안로 92 (신문로1가, 광화문오피시아...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,20 +1376,62 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6FAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE5E5E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE5E5E5"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1313,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,8 +1478,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1652,10 +1807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1777,17 +1933,17 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>149</v>
+      <c r="D11" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1835,17 +1991,17 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>146</v>
+      <c r="D16" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2069,17 +2225,17 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D37" t="s">
-        <v>145</v>
+      <c r="D37" s="13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2194,9 +2350,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>119</v>
@@ -2205,7 +2361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>125</v>
       </c>
@@ -2224,7 +2380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18">
+    <row r="52" spans="1:4" ht="18">
       <c r="A52" s="10" t="s">
         <v>126</v>
       </c>
@@ -2232,7 +2388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
@@ -2240,15 +2396,19 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75">
+    <row r="54" spans="1:4" ht="18.75">
       <c r="A54" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>132</v>
       </c>
@@ -2256,7 +2416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>134</v>
       </c>
@@ -2264,7 +2424,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>136</v>
       </c>
@@ -2272,7 +2432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>137</v>
       </c>
@@ -2280,7 +2440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>139</v>
       </c>
@@ -2291,7 +2451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>141</v>
       </c>
@@ -2299,77 +2459,145 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="7" t="s">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B65" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="7" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B67" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+      <c r="B69" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
+      <c r="B70" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="7" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3" t="s">
         <v>166</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A73" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2427,9 +2655,16 @@
     <hyperlink ref="A67" r:id="rId50" display="http://www.saramin.co.kr/zf_user/company-info/view?csn=6068626699&amp;popup_yn=y"/>
     <hyperlink ref="A68" r:id="rId51" display="http://www.saramin.co.kr/zf_user/company-info/view?csn=4128800860&amp;popup_yn=y"/>
     <hyperlink ref="A69" r:id="rId52" display="http://www.saramin.co.kr/zf_user/company-info/view?csn=6018118506&amp;popup_yn=y"/>
+    <hyperlink ref="A70" r:id="rId53" tooltip="상상스토리(주)" display="http://www.saramin.co.kr/zf_user/jobs/relay/view?view_type=search&amp;rec_idx=38641099&amp;location=ts&amp;searchType=search&amp;paid_fl=n"/>
+    <hyperlink ref="A71" r:id="rId54" tooltip="(주)아테나소프트" display="http://www.saramin.co.kr/zf_user/jobs/relay/view?view_type=search&amp;rec_idx=38395925&amp;location=ts&amp;searchType=search&amp;paid_fl=n"/>
+    <hyperlink ref="A72" r:id="rId55" tooltip="(주)에스에스비정보기술" display="http://www.saramin.co.kr/zf_user/jobs/relay/view?view_type=search&amp;rec_idx=38642414&amp;location=ts&amp;searchType=search&amp;paid_fl=n"/>
+    <hyperlink ref="A73" r:id="rId56" display="http://www.jobkorea.co.kr/Recruit/Co_Read/C/airlotto"/>
+    <hyperlink ref="A74" r:id="rId57" display="http://www.jobkorea.co.kr/Recruit/Co_Read/C/bejeweladmin"/>
+    <hyperlink ref="A75" r:id="rId58" display="http://www.jobkorea.co.kr/Recruit/Co_Read/C/do7288"/>
+    <hyperlink ref="A76" r:id="rId59" display="http://www.jobkorea.co.kr/Recruit/Co_Read/C/travelai"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/CRUD/123123.xlsx
+++ b/CRUD/123123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="185">
   <si>
     <t>모피어스시큐리티</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,9 +476,6 @@
   <si>
     <t xml:space="preserve"> (621-280) 경남 김해시 대청동 68-6 번화1로 76번길 16 녹원빌딩 902호</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(48088) 부산 해운대구 해운대로 575 국제빌딩 1402호(우동)</t>
   </si>
   <si>
     <t>(46244) 부산 금정구 금정로 225, 5층(구서동)</t>
@@ -1277,6 +1274,134 @@
   </si>
   <si>
     <t>서울 종로구 새문안로 92 (신문로1가, 광화문오피시아...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(48088) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해운대구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해운대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 575 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국제빌딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444444"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월26일 2시 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월24일  4시30분(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1810,8 +1935,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1934,7 +2059,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>30</v>
@@ -1943,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2001,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2235,7 +2360,7 @@
         <v>93</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2250,14 +2375,17 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="15" t="s">
         <v>98</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2352,7 +2480,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>119</v>
@@ -2398,170 +2526,173 @@
     </row>
     <row r="54" spans="1:4" ht="18.75">
       <c r="A54" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="7" t="s">
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
+      <c r="B59" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="12" t="s">
         <v>14</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.25" thickBot="1">
       <c r="A73" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>14</v>
@@ -2569,21 +2700,21 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>38</v>
@@ -2591,10 +2722,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>14</v>
